--- a/LineUpXLS.xlsx
+++ b/LineUpXLS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Artistes" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="104">
   <si>
     <t xml:space="preserve">Artist</t>
   </si>
@@ -159,7 +159,7 @@
     <t xml:space="preserve">Parcels</t>
   </si>
   <si>
-    <t xml:space="preserve">L'impératrice </t>
+    <t xml:space="preserve">L'impératrice</t>
   </si>
   <si>
     <t xml:space="preserve">Young Pulse</t>
@@ -225,9 +225,15 @@
     <t xml:space="preserve">Location</t>
   </si>
   <si>
+    <t xml:space="preserve">Numéro de scène</t>
+  </si>
+  <si>
     <t xml:space="preserve">Type</t>
   </si>
   <si>
+    <t xml:space="preserve">Style inadapté</t>
+  </si>
+  <si>
     <t xml:space="preserve">La Clairière</t>
   </si>
   <si>
@@ -270,7 +276,7 @@
     <t xml:space="preserve">La Java</t>
   </si>
   <si>
-    <t xml:space="preserve">Supersonic</t>
+    <t xml:space="preserve">Djoon</t>
   </si>
   <si>
     <t xml:space="preserve">Sacré </t>
@@ -338,7 +344,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -372,6 +378,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -416,8 +428,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -449,6 +465,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -472,1140 +492,1140 @@
   </sheetPr>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="3" t="n">
         <v>80000</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="n">
+      <c r="D2" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3" t="n">
+      <c r="D3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" s="3" t="n">
+      <c r="D4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="3" t="n">
         <v>8000</v>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="n">
+      <c r="D5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="3" t="n">
         <v>50000</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="F6" s="3" t="n">
+      <c r="D6" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="3" t="n">
         <v>20000</v>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="F7" s="3" t="n">
+      <c r="D7" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="3" t="n">
         <v>30000</v>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="n">
+      <c r="D8" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="G8" s="3" t="n">
+      <c r="G8" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="n">
+      <c r="D9" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="3" t="n">
         <v>50000</v>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3" t="n">
+      <c r="D10" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="3" t="n">
         <v>60000</v>
       </c>
-      <c r="D11" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F11" s="3" t="n">
+      <c r="D11" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="3" t="n">
         <v>80000</v>
       </c>
-      <c r="D12" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E12" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3" t="n">
+      <c r="D12" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="G12" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="3" t="n">
         <v>30000</v>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F13" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" s="3" t="n">
+      <c r="D13" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2" t="n">
+      <c r="B14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3" t="n">
         <v>100000</v>
       </c>
-      <c r="D14" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3" t="n">
+      <c r="D14" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="G14" s="3" t="n">
+      <c r="G14" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="n">
+      <c r="B15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3" t="n">
         <v>100000</v>
       </c>
-      <c r="D15" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E15" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3" t="n">
+      <c r="D15" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="G15" s="3" t="n">
+      <c r="G15" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2" t="n">
+      <c r="B16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3" t="n">
         <v>80000</v>
       </c>
-      <c r="D16" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E16" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F16" s="3" t="n">
+      <c r="D16" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="G16" s="3" t="n">
+      <c r="G16" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2" t="n">
+      <c r="B17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3" t="n">
         <v>90000</v>
       </c>
-      <c r="D17" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3" t="n">
+      <c r="D17" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="G17" s="3" t="n">
+      <c r="G17" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C18" s="3" t="n">
         <v>60000</v>
       </c>
-      <c r="D18" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3" t="n">
+      <c r="D18" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="G18" s="3" t="n">
+      <c r="G18" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="3" t="n">
         <v>30000</v>
       </c>
-      <c r="D19" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E19" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F19" s="3" t="n">
+      <c r="D19" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="G19" s="3" t="n">
+      <c r="G19" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="C20" s="3" t="n">
         <v>20000</v>
       </c>
-      <c r="D20" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E20" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F20" s="3" t="n">
+      <c r="D20" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="G20" s="3" t="n">
+      <c r="G20" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="C21" s="3" t="n">
         <v>9000</v>
       </c>
-      <c r="D21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="n">
+      <c r="D21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F21" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="2" t="n">
+      <c r="C22" s="3" t="n">
         <v>20000</v>
       </c>
-      <c r="D22" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3" t="n">
+      <c r="D22" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="G22" s="3" t="n">
+      <c r="G22" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="2" t="n">
+      <c r="C23" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="D23" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3" t="n">
+      <c r="D23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F23" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="G23" s="3" t="n">
+      <c r="G23" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="2" t="n">
+      <c r="C24" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="D24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3" t="n">
+      <c r="D24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="G24" s="3" t="n">
+      <c r="G24" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="2" t="n">
+      <c r="C25" s="3" t="n">
         <v>8000</v>
       </c>
-      <c r="D25" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F25" s="3" t="n">
+      <c r="D25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F25" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="G25" s="3" t="n">
+      <c r="G25" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="2" t="n">
+      <c r="C26" s="3" t="n">
         <v>20000</v>
       </c>
-      <c r="D26" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E26" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F26" s="3" t="n">
+      <c r="D26" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F26" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="G26" s="3" t="n">
+      <c r="G26" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="2" t="n">
+      <c r="C27" s="3" t="n">
         <v>50000</v>
       </c>
-      <c r="D27" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E27" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F27" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="G27" s="3" t="n">
+      <c r="D27" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F27" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G27" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="2" t="n">
+      <c r="C28" s="3" t="n">
         <v>30000</v>
       </c>
-      <c r="D28" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E28" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F28" s="3" t="n">
+      <c r="D28" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="G28" s="3" t="n">
+      <c r="G28" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="2" t="n">
+      <c r="C29" s="3" t="n">
         <v>40000</v>
       </c>
-      <c r="D29" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E29" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3" t="n">
+      <c r="D29" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F29" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="G29" s="3" t="n">
+      <c r="G29" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="2" t="n">
+      <c r="C30" s="3" t="n">
         <v>80000</v>
       </c>
-      <c r="D30" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E30" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3" t="n">
+      <c r="D30" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="G30" s="3" t="n">
+      <c r="G30" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="2" t="n">
+      <c r="C31" s="3" t="n">
         <v>80000</v>
       </c>
-      <c r="D31" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E31" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F31" s="3" t="n">
+      <c r="D31" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F31" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="G31" s="3" t="n">
+      <c r="G31" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="2" t="n">
+      <c r="C32" s="3" t="n">
         <v>80000</v>
       </c>
-      <c r="D32" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3" t="n">
+      <c r="D32" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E32" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="G32" s="3" t="n">
+      <c r="G32" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="2" t="n">
+      <c r="C33" s="3" t="n">
         <v>80000</v>
       </c>
-      <c r="D33" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E33" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3" t="n">
+      <c r="D33" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E33" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="G33" s="3" t="n">
+      <c r="G33" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="2" t="n">
+      <c r="C34" s="3" t="n">
         <v>8000</v>
       </c>
-      <c r="D34" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3" t="n">
+      <c r="D34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="G34" s="3" t="n">
+      <c r="G34" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="2" t="n">
+      <c r="C35" s="3" t="n">
         <v>30000</v>
       </c>
-      <c r="D35" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E35" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3" t="n">
+      <c r="D35" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E35" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="G35" s="3" t="n">
+      <c r="G35" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="2" t="n">
+      <c r="C36" s="3" t="n">
         <v>70000</v>
       </c>
-      <c r="D36" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E36" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="3" t="n">
+      <c r="D36" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E36" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="2" t="n">
+      <c r="C37" s="3" t="n">
         <v>30000</v>
       </c>
-      <c r="D37" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E37" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" s="3" t="n">
+      <c r="D37" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="G37" s="3" t="n">
+      <c r="G37" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="2" t="n">
+      <c r="C38" s="3" t="n">
         <v>40000</v>
       </c>
-      <c r="D38" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E38" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="F38" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="G38" s="3" t="n">
+      <c r="D38" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F38" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G38" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="2" t="n">
+      <c r="C39" s="3" t="n">
         <v>30000</v>
       </c>
-      <c r="D39" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E39" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="F39" s="3" t="n">
+      <c r="D39" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F39" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="G39" s="3" t="n">
+      <c r="G39" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="2" t="n">
+      <c r="C40" s="3" t="n">
         <v>70000</v>
       </c>
-      <c r="D40" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E40" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="F40" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="G40" s="3" t="n">
+      <c r="D40" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E40" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F40" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G40" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="2" t="n">
+      <c r="C41" s="3" t="n">
         <v>20000</v>
       </c>
-      <c r="D41" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E41" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="F41" s="3" t="n">
+      <c r="D41" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E41" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F41" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="G41" s="3" t="n">
+      <c r="G41" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="2" t="n">
+      <c r="C42" s="3" t="n">
         <v>40000</v>
       </c>
-      <c r="D42" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E42" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="F42" s="3" t="n">
+      <c r="D42" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E42" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F42" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="G42" s="3" t="n">
+      <c r="G42" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="2" t="n">
+      <c r="C43" s="3" t="n">
         <v>10000</v>
       </c>
-      <c r="D43" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3" t="n">
+      <c r="D43" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F43" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G43" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="2" t="n">
+      <c r="C44" s="3" t="n">
         <v>30000</v>
       </c>
-      <c r="D44" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E44" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F44" s="3" t="n">
+      <c r="D44" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E44" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F44" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="G44" s="3" t="n">
+      <c r="G44" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="2" t="n">
+      <c r="C45" s="3" t="n">
         <v>60000</v>
       </c>
-      <c r="D45" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F45" s="3" t="n">
+      <c r="D45" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E45" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="G45" s="3" t="n">
+      <c r="G45" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="2" t="n">
+      <c r="C46" s="3" t="n">
         <v>20000</v>
       </c>
-      <c r="D46" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E46" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F46" s="3" t="n">
+      <c r="D46" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E46" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F46" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="G46" s="3" t="n">
+      <c r="G46" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="2" t="n">
+      <c r="C47" s="3" t="n">
         <v>30000</v>
       </c>
-      <c r="D47" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F47" s="3" t="n">
+      <c r="D47" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E47" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F47" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="G47" s="3" t="n">
+      <c r="G47" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="2" t="n">
+      <c r="C48" s="3" t="n">
         <v>50000</v>
       </c>
-      <c r="D48" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E48" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3" t="n">
+      <c r="D48" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E48" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="G48" s="3" t="n">
+      <c r="G48" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="2" t="n">
+      <c r="C49" s="3" t="n">
         <v>70000</v>
       </c>
-      <c r="D49" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E49" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F49" s="3" t="n">
+      <c r="D49" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E49" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="G49" s="3" t="n">
+      <c r="G49" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1625,371 +1645,575 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+    <row r="1" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="2" t="n">
+      <c r="A2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="n">
         <v>80000</v>
       </c>
-      <c r="C2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>5</v>
+      <c r="D2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="2" t="n">
+      <c r="A3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>90000</v>
       </c>
-      <c r="C3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>5</v>
+      <c r="D3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="2" t="n">
+      <c r="A4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="n">
         <v>100000</v>
       </c>
-      <c r="C4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>5</v>
+      <c r="D4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="2" t="n">
+      <c r="A5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="n">
         <v>120000</v>
       </c>
-      <c r="C5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="F5" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="2" t="n">
+      <c r="A6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="n">
         <v>130000</v>
       </c>
-      <c r="C6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="F6" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="2" t="n">
+      <c r="A7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="n">
         <v>150000</v>
       </c>
-      <c r="C7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="2" t="n">
+      <c r="A8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="n">
         <v>100000</v>
       </c>
-      <c r="C8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="F8" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="2" t="n">
+      <c r="A9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="n">
         <v>250000</v>
       </c>
-      <c r="C9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="F9" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="2" t="n">
+      <c r="A10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="n">
         <v>300000</v>
       </c>
-      <c r="C10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="2" t="n">
+      <c r="A11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="n">
         <v>20000</v>
       </c>
-      <c r="C11" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="F11" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="2" t="n">
+      <c r="A12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="n">
         <v>50000</v>
       </c>
-      <c r="C12" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="F12" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="2" t="n">
+      <c r="A13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="n">
         <v>80000</v>
       </c>
-      <c r="C13" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="F13" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="2" t="n">
+      <c r="A14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="n">
         <v>50000</v>
       </c>
-      <c r="C14" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="F14" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="2" t="n">
+      <c r="A15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="n">
         <v>60000</v>
       </c>
-      <c r="C15" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="2" t="n">
+      <c r="A16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3" t="n">
         <v>70000</v>
       </c>
-      <c r="C16" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="F16" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="2" t="n">
+      <c r="A17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="n">
         <v>80000</v>
       </c>
-      <c r="C17" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="F17" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" s="2" t="n">
+      <c r="A18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="n">
         <v>90000</v>
       </c>
-      <c r="C18" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="F18" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" s="2" t="n">
+      <c r="A19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3" t="n">
         <v>100000</v>
       </c>
-      <c r="C19" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="F19" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="2" t="n">
+      <c r="A20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3" t="n">
         <v>200000</v>
       </c>
-      <c r="C20" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="F20" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="2" t="n">
+      <c r="A21" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3" t="n">
         <v>300000</v>
       </c>
-      <c r="C21" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="F21" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" s="2" t="n">
+      <c r="A22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3" t="n">
         <v>350000</v>
       </c>
-      <c r="C22" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E22" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="F22" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" s="2" t="n">
+      <c r="A23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" s="3" t="n">
         <v>450000</v>
       </c>
-      <c r="C23" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="F23" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="2" t="n">
+      <c r="A24" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="C24" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="F24" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" s="2" t="n">
+      <c r="A25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="C25" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="F25" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="7"/>
+      <c r="E27" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <f aca="false">COUNTIF(F2:F25,5)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <f aca="false">COUNTIF(F2:F25,4)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E29" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F29" s="9" t="n">
+        <f aca="false">COUNTIF(F2:F25,3)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E30" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" s="9" t="n">
+        <f aca="false">COUNTIF(F2:F25,2)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E31" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <f aca="false">COUNTIF(F2:F25,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <f aca="false">COUNTIF(F2:F25,0)</f>
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2016,97 +2240,97 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8" t="n">
+      <c r="A2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="n">
         <f aca="false">COUNTIF(Artistes!E2:E49,0)</f>
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="4" t="n">
         <f aca="false">COUNTIF(Artistes!G2:G49,1)</f>
         <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="n">
+      <c r="A3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="n">
         <f aca="false">COUNTIF(Artistes!E2:E49,1)</f>
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>97</v>
+      <c r="E3" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="n">
+      <c r="A4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="n">
         <f aca="false">COUNTIF(Artistes!E2:E49,2)</f>
         <v>8</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="10" t="n">
         <f aca="false">COUNTIF(Artistes!G2:G49,0)</f>
         <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="n">
+      <c r="A5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="n">
         <f aca="false">COUNTIF(Artistes!E2:E49,3)</f>
         <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="n">
+      <c r="A6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="n">
         <f aca="false">COUNTIF(Artistes!E2:E49,4)</f>
         <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="n">
+      <c r="A7" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="n">
         <f aca="false">COUNTIF(Artistes!E2:E49,5)</f>
         <v>8</v>
       </c>

--- a/LineUpXLS.xlsx
+++ b/LineUpXLS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Artistes" sheetId="1" state="visible" r:id="rId2"/>
@@ -285,7 +285,7 @@
     <t xml:space="preserve">Cité de la mode</t>
   </si>
   <si>
-    <t xml:space="preserve">YOYO palais de Tokyo</t>
+    <t xml:space="preserve">YOYO</t>
   </si>
   <si>
     <t xml:space="preserve">Madame Loyale</t>
@@ -294,7 +294,7 @@
     <t xml:space="preserve">FnacLive</t>
   </si>
   <si>
-    <t xml:space="preserve">Fete de l'humanité</t>
+    <t xml:space="preserve">Fete de l'huma</t>
   </si>
   <si>
     <t xml:space="preserve">Touquet Music Beach</t>
@@ -344,7 +344,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -378,12 +378,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -428,7 +422,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -453,10 +447,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -465,7 +455,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -492,7 +482,7 @@
   </sheetPr>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -1647,8 +1637,8 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1669,7 +1659,7 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1689,7 +1679,7 @@
       <c r="E2" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1709,7 +1699,7 @@
       <c r="E3" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1729,7 +1719,7 @@
       <c r="E4" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1749,7 +1739,7 @@
       <c r="E5" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1769,7 +1759,7 @@
       <c r="E6" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1789,7 +1779,7 @@
       <c r="E7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1809,7 +1799,7 @@
       <c r="E8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1829,7 +1819,7 @@
       <c r="E9" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1849,7 +1839,7 @@
       <c r="E10" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1869,7 +1859,7 @@
       <c r="E11" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1889,7 +1879,7 @@
       <c r="E12" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1909,7 +1899,7 @@
       <c r="E13" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1929,7 +1919,7 @@
       <c r="E14" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1949,7 +1939,7 @@
       <c r="E15" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1969,7 +1959,7 @@
       <c r="E16" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1989,7 +1979,7 @@
       <c r="E17" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2009,7 +1999,7 @@
       <c r="E18" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2029,7 +2019,7 @@
       <c r="E19" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2049,7 +2039,7 @@
       <c r="E20" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2069,7 +2059,7 @@
       <c r="E21" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2089,7 +2079,7 @@
       <c r="E22" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2109,7 +2099,7 @@
       <c r="E23" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2129,7 +2119,7 @@
       <c r="E24" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24" s="1" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2149,68 +2139,68 @@
       <c r="E25" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25" s="1" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="7"/>
-      <c r="E27" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="F27" s="6" t="n">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="6"/>
+      <c r="E27" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F27" s="2" t="n">
         <f aca="false">COUNTIF(F2:F25,5)</f>
         <v>4</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E28" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="F28" s="9" t="n">
+      <c r="E28" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F28" s="8" t="n">
         <f aca="false">COUNTIF(F2:F25,4)</f>
         <v>4</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E29" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="F29" s="9" t="n">
+      <c r="E29" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F29" s="8" t="n">
         <f aca="false">COUNTIF(F2:F25,3)</f>
         <v>4</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E30" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F30" s="9" t="n">
+      <c r="E30" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" s="8" t="n">
         <f aca="false">COUNTIF(F2:F25,2)</f>
         <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E31" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" s="9" t="n">
+      <c r="E31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="8" t="n">
         <f aca="false">COUNTIF(F2:F25,1)</f>
         <v>3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E32" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="9" t="n">
+      <c r="E32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="8" t="n">
         <f aca="false">COUNTIF(F2:F25,0)</f>
         <v>4</v>
       </c>
@@ -2259,7 +2249,7 @@
       <c r="B2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="n">
+      <c r="C2" s="9" t="n">
         <f aca="false">COUNTIF(Artistes!E2:E49,0)</f>
         <v>8</v>
       </c>
@@ -2294,7 +2284,7 @@
         <f aca="false">COUNTIF(Artistes!E2:E49,2)</f>
         <v>8</v>
       </c>
-      <c r="E4" s="10" t="n">
+      <c r="E4" s="9" t="n">
         <f aca="false">COUNTIF(Artistes!G2:G49,0)</f>
         <v>13</v>
       </c>

--- a/LineUpXLS.xlsx
+++ b/LineUpXLS.xlsx
@@ -279,7 +279,7 @@
     <t xml:space="preserve">Djoon</t>
   </si>
   <si>
-    <t xml:space="preserve">Sacré </t>
+    <t xml:space="preserve">Sacré</t>
   </si>
   <si>
     <t xml:space="preserve">Cité de la mode</t>
@@ -482,8 +482,8 @@
   </sheetPr>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1637,8 +1637,8 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2224,7 +2224,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/LineUpXLS.xlsx
+++ b/LineUpXLS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Artistes" sheetId="1" state="visible" r:id="rId2"/>
@@ -422,7 +422,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -440,6 +440,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -480,10 +492,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B17" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topRight" activeCell="E53" activeCellId="0" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -555,7 +569,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>1</v>
@@ -578,7 +592,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>1</v>
@@ -601,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>1</v>
@@ -623,8 +637,8 @@
       <c r="E6" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="F6" s="4" t="n">
-        <v>16</v>
+      <c r="F6" s="5" t="n">
+        <v>17</v>
       </c>
       <c r="G6" s="4" t="n">
         <v>1</v>
@@ -647,7 +661,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G7" s="4" t="n">
         <v>1</v>
@@ -670,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" s="4" t="n">
         <v>1</v>
@@ -692,8 +706,8 @@
       <c r="E9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="4" t="n">
-        <v>16</v>
+      <c r="F9" s="5" t="n">
+        <v>15</v>
       </c>
       <c r="G9" s="4" t="n">
         <v>1</v>
@@ -716,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G10" s="4" t="n">
         <v>1</v>
@@ -739,7 +753,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="4" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G11" s="4" t="n">
         <v>1</v>
@@ -762,7 +776,7 @@
         <v>3</v>
       </c>
       <c r="F12" s="4" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G12" s="4" t="n">
         <v>1</v>
@@ -785,7 +799,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" s="4" t="n">
         <v>1</v>
@@ -808,7 +822,7 @@
         <v>5</v>
       </c>
       <c r="F14" s="4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G14" s="4" t="n">
         <v>0</v>
@@ -831,7 +845,7 @@
         <v>5</v>
       </c>
       <c r="F15" s="4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G15" s="4" t="n">
         <v>1</v>
@@ -853,7 +867,7 @@
       <c r="E16" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="F16" s="4" t="n">
+      <c r="F16" s="5" t="n">
         <v>19</v>
       </c>
       <c r="G16" s="4" t="n">
@@ -876,8 +890,8 @@
       <c r="E17" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="F17" s="4" t="n">
-        <v>19</v>
+      <c r="F17" s="5" t="n">
+        <v>20</v>
       </c>
       <c r="G17" s="4" t="n">
         <v>0</v>
@@ -900,7 +914,7 @@
         <v>3</v>
       </c>
       <c r="F18" s="4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G18" s="4" t="n">
         <v>0</v>
@@ -923,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="F19" s="4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G19" s="4" t="n">
         <v>0</v>
@@ -946,7 +960,7 @@
         <v>2</v>
       </c>
       <c r="F20" s="4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G20" s="4" t="n">
         <v>0</v>
@@ -969,7 +983,7 @@
         <v>4</v>
       </c>
       <c r="F21" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G21" s="4" t="n">
         <v>0</v>
@@ -991,8 +1005,8 @@
       <c r="E22" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F22" s="4" t="n">
-        <v>6</v>
+      <c r="F22" s="5" t="n">
+        <v>14</v>
       </c>
       <c r="G22" s="4" t="n">
         <v>1</v>
@@ -1014,8 +1028,8 @@
       <c r="E23" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="F23" s="4" t="n">
-        <v>6</v>
+      <c r="F23" s="5" t="n">
+        <v>7</v>
       </c>
       <c r="G23" s="4" t="n">
         <v>1</v>
@@ -1038,7 +1052,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G24" s="4" t="n">
         <v>1</v>
@@ -1060,8 +1074,8 @@
       <c r="E25" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="F25" s="4" t="n">
-        <v>6</v>
+      <c r="F25" s="5" t="n">
+        <v>17</v>
       </c>
       <c r="G25" s="4" t="n">
         <v>0</v>
@@ -1084,7 +1098,7 @@
         <v>3</v>
       </c>
       <c r="F26" s="4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G26" s="4" t="n">
         <v>1</v>
@@ -1107,7 +1121,7 @@
         <v>3</v>
       </c>
       <c r="F27" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G27" s="4" t="n">
         <v>1</v>
@@ -1130,7 +1144,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G28" s="4" t="n">
         <v>1</v>
@@ -1153,7 +1167,7 @@
         <v>3</v>
       </c>
       <c r="F29" s="4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G29" s="4" t="n">
         <v>1</v>
@@ -1176,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G30" s="4" t="n">
         <v>0</v>
@@ -1199,7 +1213,7 @@
         <v>5</v>
       </c>
       <c r="F31" s="4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G31" s="4" t="n">
         <v>1</v>
@@ -1222,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G32" s="4" t="n">
         <v>1</v>
@@ -1245,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="4" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G33" s="4" t="n">
         <v>0</v>
@@ -1268,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G34" s="4" t="n">
         <v>1</v>
@@ -1291,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G35" s="4" t="n">
         <v>1</v>
@@ -1314,7 +1328,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" s="4" t="n">
         <v>1</v>
@@ -1337,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="4" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G37" s="4" t="n">
         <v>1</v>
@@ -1359,8 +1373,8 @@
       <c r="E38" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="F38" s="4" t="n">
-        <v>5</v>
+      <c r="F38" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="G38" s="4" t="n">
         <v>1</v>
@@ -1383,7 +1397,7 @@
         <v>4</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G39" s="4" t="n">
         <v>1</v>
@@ -1405,8 +1419,8 @@
       <c r="E40" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="F40" s="4" t="n">
-        <v>5</v>
+      <c r="F40" s="5" t="n">
+        <v>6</v>
       </c>
       <c r="G40" s="4" t="n">
         <v>1</v>
@@ -1429,7 +1443,7 @@
         <v>4</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G41" s="4" t="n">
         <v>1</v>
@@ -1452,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G42" s="4" t="n">
         <v>1</v>
@@ -1475,7 +1489,7 @@
         <v>3</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G43" s="4" t="n">
         <v>1</v>
@@ -1498,7 +1512,7 @@
         <v>3</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G44" s="4" t="n">
         <v>1</v>
@@ -1521,7 +1535,7 @@
         <v>2</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G45" s="4" t="n">
         <v>1</v>
@@ -1544,7 +1558,7 @@
         <v>5</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" s="4" t="n">
         <v>0</v>
@@ -1567,7 +1581,7 @@
         <v>5</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G47" s="4" t="n">
         <v>0</v>
@@ -1590,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G48" s="4" t="n">
         <v>0</v>
@@ -1613,11 +1627,107 @@
         <v>1</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G49" s="4" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E52" s="6"/>
+      <c r="F52" s="7"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1637,17 +1747,17 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -2144,14 +2254,14 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="6"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="9"/>
       <c r="E27" s="2" t="n">
         <v>5</v>
       </c>
@@ -2164,7 +2274,7 @@
       <c r="E28" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F28" s="8" t="n">
+      <c r="F28" s="11" t="n">
         <f aca="false">COUNTIF(F2:F25,4)</f>
         <v>4</v>
       </c>
@@ -2173,7 +2283,7 @@
       <c r="E29" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F29" s="8" t="n">
+      <c r="F29" s="11" t="n">
         <f aca="false">COUNTIF(F2:F25,3)</f>
         <v>4</v>
       </c>
@@ -2182,7 +2292,7 @@
       <c r="E30" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F30" s="8" t="n">
+      <c r="F30" s="11" t="n">
         <f aca="false">COUNTIF(F2:F25,2)</f>
         <v>3</v>
       </c>
@@ -2191,7 +2301,7 @@
       <c r="E31" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F31" s="8" t="n">
+      <c r="F31" s="11" t="n">
         <f aca="false">COUNTIF(F2:F25,1)</f>
         <v>3</v>
       </c>
@@ -2200,7 +2310,7 @@
       <c r="E32" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F32" s="8" t="n">
+      <c r="F32" s="11" t="n">
         <f aca="false">COUNTIF(F2:F25,0)</f>
         <v>4</v>
       </c>
@@ -2223,7 +2333,7 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -2249,7 +2359,7 @@
       <c r="B2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="n">
+      <c r="C2" s="12" t="n">
         <f aca="false">COUNTIF(Artistes!E2:E49,0)</f>
         <v>8</v>
       </c>
@@ -2284,7 +2394,7 @@
         <f aca="false">COUNTIF(Artistes!E2:E49,2)</f>
         <v>8</v>
       </c>
-      <c r="E4" s="9" t="n">
+      <c r="E4" s="12" t="n">
         <f aca="false">COUNTIF(Artistes!G2:G49,0)</f>
         <v>13</v>
       </c>

--- a/LineUpXLS.xlsx
+++ b/LineUpXLS.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Artistes" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Scenes" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Dico" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Events" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Dico" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="151">
   <si>
     <t xml:space="preserve">Artist</t>
   </si>
@@ -304,6 +305,147 @@
   </si>
   <si>
     <t xml:space="preserve">Lollapalooza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">style</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrêt saucisse/paëla à la sortie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gratuit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bouffe végan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conférences climat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smalltown boy à la fin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gourde offerte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bière gratuite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goudies offert (tatoo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paillettes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coucou de loin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croiser quelqu'un de connu (Sandrine Rousseau)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambiance de fou (foule en délire)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pause attraction/ palais du rire/ peche aux canards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abba passe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beau temps, soleil et pas trop chaud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barbe à papa par le mec de la sécu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gagner des places sur insta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gobelets consigné (perte d'argent)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-20000 écocups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Déluge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open air profit + 5 stars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barrières police</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problème de micro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1 artiste random</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bière renversée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serré comme des sardines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boites profit + 3 stars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panne de courrant (qqun à pisser sur la multiprise)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragueur relou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vent et froid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burger et sushi à 30 balles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plus de papier dans les toilettes/ queue interminable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evacuation par la police (cf radio cargo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retard de l'artiste (pnl tu connais)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1* pour tous les artistes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plus d'ascenseur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soirée profit + 3 stars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plus de taxi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noctilien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vestiaire trop cher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vérification caleçon</t>
   </si>
   <si>
     <t xml:space="preserve">Styles</t>
@@ -422,7 +564,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -440,18 +582,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -494,10 +624,10 @@
   </sheetPr>
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B17" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
-      <selection pane="topRight" activeCell="E53" activeCellId="0" sqref="E53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -637,7 +767,7 @@
       <c r="E6" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="4" t="n">
         <v>17</v>
       </c>
       <c r="G6" s="4" t="n">
@@ -706,7 +836,7 @@
       <c r="E9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="4" t="n">
         <v>15</v>
       </c>
       <c r="G9" s="4" t="n">
@@ -867,7 +997,7 @@
       <c r="E16" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="F16" s="5" t="n">
+      <c r="F16" s="4" t="n">
         <v>19</v>
       </c>
       <c r="G16" s="4" t="n">
@@ -890,7 +1020,7 @@
       <c r="E17" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="F17" s="5" t="n">
+      <c r="F17" s="4" t="n">
         <v>20</v>
       </c>
       <c r="G17" s="4" t="n">
@@ -1005,7 +1135,7 @@
       <c r="E22" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F22" s="5" t="n">
+      <c r="F22" s="4" t="n">
         <v>14</v>
       </c>
       <c r="G22" s="4" t="n">
@@ -1028,7 +1158,7 @@
       <c r="E23" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="F23" s="5" t="n">
+      <c r="F23" s="4" t="n">
         <v>7</v>
       </c>
       <c r="G23" s="4" t="n">
@@ -1074,7 +1204,7 @@
       <c r="E25" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="F25" s="5" t="n">
+      <c r="F25" s="4" t="n">
         <v>17</v>
       </c>
       <c r="G25" s="4" t="n">
@@ -1373,7 +1503,7 @@
       <c r="E38" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="F38" s="5" t="n">
+      <c r="F38" s="4" t="n">
         <v>2</v>
       </c>
       <c r="G38" s="4" t="n">
@@ -1419,7 +1549,7 @@
       <c r="E40" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="F40" s="5" t="n">
+      <c r="F40" s="4" t="n">
         <v>6</v>
       </c>
       <c r="G40" s="4" t="n">
@@ -1634,100 +1764,100 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E52" s="6"/>
-      <c r="F52" s="7"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="4"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1748,16 +1878,16 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -2254,14 +2384,14 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="9"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="6"/>
       <c r="E27" s="2" t="n">
         <v>5</v>
       </c>
@@ -2274,7 +2404,7 @@
       <c r="E28" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F28" s="11" t="n">
+      <c r="F28" s="8" t="n">
         <f aca="false">COUNTIF(F2:F25,4)</f>
         <v>4</v>
       </c>
@@ -2283,7 +2413,7 @@
       <c r="E29" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F29" s="11" t="n">
+      <c r="F29" s="8" t="n">
         <f aca="false">COUNTIF(F2:F25,3)</f>
         <v>4</v>
       </c>
@@ -2292,7 +2422,7 @@
       <c r="E30" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F30" s="11" t="n">
+      <c r="F30" s="8" t="n">
         <f aca="false">COUNTIF(F2:F25,2)</f>
         <v>3</v>
       </c>
@@ -2301,7 +2431,7 @@
       <c r="E31" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F31" s="11" t="n">
+      <c r="F31" s="8" t="n">
         <f aca="false">COUNTIF(F2:F25,1)</f>
         <v>3</v>
       </c>
@@ -2310,7 +2440,7 @@
       <c r="E32" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F32" s="11" t="n">
+      <c r="F32" s="8" t="n">
         <f aca="false">COUNTIF(F2:F25,0)</f>
         <v>4</v>
       </c>
@@ -2331,6 +2461,366 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.02"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -2341,25 +2831,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="12" t="n">
+      <c r="C2" s="9" t="n">
         <f aca="false">COUNTIF(Artistes!E2:E49,0)</f>
         <v>8</v>
       </c>
@@ -2370,7 +2860,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>1</v>
@@ -2380,12 +2870,12 @@
         <v>8</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>2</v>
@@ -2394,14 +2884,14 @@
         <f aca="false">COUNTIF(Artistes!E2:E49,2)</f>
         <v>8</v>
       </c>
-      <c r="E4" s="12" t="n">
+      <c r="E4" s="9" t="n">
         <f aca="false">COUNTIF(Artistes!G2:G49,0)</f>
         <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>3</v>
@@ -2413,7 +2903,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>4</v>
@@ -2425,7 +2915,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>5</v>

--- a/LineUpXLS.xlsx
+++ b/LineUpXLS.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="213">
   <si>
     <t xml:space="preserve">Artist</t>
   </si>
@@ -307,145 +307,347 @@
     <t xml:space="preserve">Lollapalooza</t>
   </si>
   <si>
-    <t xml:space="preserve">Bonus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Effet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fame</t>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">effect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fame</t>
   </si>
   <si>
     <t xml:space="preserve">style</t>
   </si>
   <si>
+    <t xml:space="preserve">Saucisse</t>
+  </si>
+  <si>
     <t xml:space="preserve">Arrêt saucisse/paëla à la sortie</t>
   </si>
   <si>
+    <t xml:space="preserve">4 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free from desire</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gratuit</t>
   </si>
   <si>
+    <t xml:space="preserve">+ 10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 2 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evenement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vegan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bouffe végan</t>
   </si>
   <si>
+    <t xml:space="preserve">1 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conférence</t>
+  </si>
+  <si>
     <t xml:space="preserve">Conférences climat</t>
   </si>
   <si>
-    <t xml:space="preserve">Smalltown boy à la fin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BG</t>
+    <t xml:space="preserve">open air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smalltown boy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le dernier vinyle se pose sur les platines, la nostalgie monte en reconnaissant la musique, car tu as compris que c’est déjà la fin de soirée.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Club -5 stars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 3 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I Love U So</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un mec te fais de l’oeil, tu commences à discuter avec lui, avec un peu de chance tu repartiras avec son numéro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">festival</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gourde</t>
   </si>
   <si>
     <t xml:space="preserve">Gourde offerte</t>
   </si>
   <si>
+    <t xml:space="preserve">Bière</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bière gratuite</t>
   </si>
   <si>
+    <t xml:space="preserve">3 1 2 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goodies</t>
+  </si>
+  <si>
     <t xml:space="preserve">Goudies offert (tatoo)</t>
   </si>
   <si>
+    <t xml:space="preserve">event – 3 stars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glitter</t>
+  </si>
+  <si>
     <t xml:space="preserve">Paillettes</t>
   </si>
   <si>
+    <t xml:space="preserve">+ 1 star artists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coucou</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coucou de loin</t>
   </si>
   <si>
+    <t xml:space="preserve">4 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connu</t>
+  </si>
+  <si>
     <t xml:space="preserve">Croiser quelqu'un de connu (Sandrine Rousseau)</t>
   </si>
   <si>
+    <t xml:space="preserve">4 2 1 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambiance</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ambiance de fou (foule en délire)</t>
   </si>
   <si>
-    <t xml:space="preserve">pause attraction/ palais du rire/ peche aux canards</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abba passe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beau temps, soleil et pas trop chaud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">barbe à papa par le mec de la sécu</t>
+    <t xml:space="preserve">Photomaton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petite pause entre jabberwoky et bob sinclar, la pêche aux canards t’attends après avoir fais ton 3ème polaroid de l’après-midi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disco Queen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La reine du Disco fais chauffer la piste, il s’agit bien évidemment d’Abba.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 2 0 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beau temps, soleil et pas trop chaud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open air – 3 stars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take me up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le mec de la sécurité t’offres une barbe à papa quelle chance.</t>
   </si>
   <si>
     <t xml:space="preserve">Gagner des places sur insta</t>
   </si>
   <si>
-    <t xml:space="preserve">Malus</t>
+    <t xml:space="preserve">3 2 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gobelets</t>
   </si>
   <si>
     <t xml:space="preserve">Gobelets consigné (perte d'argent)</t>
   </si>
   <si>
-    <t xml:space="preserve">-20000 écocups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Déluge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">open air profit + 5 stars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barrières police</t>
+    <t xml:space="preserve">-20000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La piscine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ca y est les nuages sont de la partie et tu passes la moitié du concert d’Angèle à danser sous la pluie battante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open air + 5 stars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don’t wanna Dance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tu veux aller danser mais la police en a décidé autrement, des barrière encerclent Thylacine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micro</t>
   </si>
   <si>
     <t xml:space="preserve">Problème de micro</t>
   </si>
   <si>
-    <t xml:space="preserve">-1 artiste random</t>
+    <t xml:space="preserve">-1 artist</t>
   </si>
   <si>
     <t xml:space="preserve">Bière renversée</t>
   </si>
   <si>
-    <t xml:space="preserve">Serré comme des sardines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boites profit + 3 stars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panne de courrant (qqun à pisser sur la multiprise)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dragueur relou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vent et froid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burger et sushi à 30 balles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plus de papier dans les toilettes/ queue interminable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evacuation par la police (cf radio cargo)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retard de l'artiste (pnl tu connais)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1* pour tous les artistes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plus d'ascenseur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soirée profit + 3 stars</t>
+    <t xml:space="preserve">4 3 2 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les sardines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apparemment plus de place ont été vendue que la capacité maximale du lieu, tu te retrouves écrasé entre 2 couples se galochant langoureusement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">club + 3 stars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the dark</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">C’est la p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">anne de courrant, quelqu’un a eu la bonne idée de pisser sur la multiprise</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Balance ton quoi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comme à chaque festival, parmis tout les dragueur, il y en a forcément un de bien relou.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sous le vent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le déréglement climatique atteindra même les festivals avec ce soudain vent frais qui te rendra enrhumé le lendemain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Money for Nothing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les soirées dans les endroits les plus classes font valoir de leur réputation et ne se gênent pas à vendre des burger et sushi à plus de 30 €.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quanto Tempo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plus que 20 min à attendre pour pisser un coup, c’est dommage ça te fais louper la performance de Marc Rebillet !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 2 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rave against the system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les open air de radio cargo mettent le feu à la capitale, tellement que la police viens pour te virer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Always on a run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A leur grande habitude, PNL se font attendre et mette plus de 20min à commencer leur show au WLG.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1 star artists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Never going home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La soirée sur le Toit de la défense était mémorable, malheureusement plus aucun ascenseur ne fonctionne, tu restes bloqué au sommet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">event + 3 stars</t>
   </si>
   <si>
     <t xml:space="preserve">Plus de taxi</t>
   </si>
   <si>
-    <t xml:space="preserve">Noctilien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vestiaire trop cher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vérification caleçon</t>
+    <t xml:space="preserve">Le monde attiré par le lollapalooza rend compte de la line up de folie proposé, malheureusement, les taxis ne seront eux, pas au rendez-vous.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travelling without arriving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La fin de soirée s’annoncera longue car il est maintenant temps de rentré et seul le noctilien te proposera de t’amener chez toi ce soir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thrift Shop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment rentabiliser les soirées gratuites ? Proposer un vestiaire ou tu peux payer 9€ pour un manteau et une écharpe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fouille au corps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tu arrives tellement tôt au Nexus que la sécurité te prends pour une mule et te fouilles jusqu’à vérifier l’intégrité de tes sous-vêtements.</t>
   </si>
   <si>
     <t xml:space="preserve">Styles</t>
@@ -486,7 +688,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -521,13 +723,46 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFC9211E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC9211E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFC9211E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -564,7 +799,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -601,6 +836,42 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -614,6 +885,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FFC9211E"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -624,10 +955,10 @@
   </sheetPr>
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="A17" activeCellId="0" sqref="A17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B32" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+      <selection pane="topRight" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1878,7 +2209,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2461,349 +2792,684 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="34.64"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="2.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="3.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="3.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="3.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="4.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
+      <c r="A2" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="0"/>
+      <c r="D2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="0" t="n">
+      <c r="A3" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="J3" s="12" t="n">
+        <f aca="false">SUMIF(E2:E19,"*0*",D2:D19)</f>
+        <v>30</v>
+      </c>
+      <c r="K3" s="12" t="n">
+        <f aca="false">SUMIF(E20:E37,"*0*",D20:D37)</f>
+        <v>-12</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>3</v>
+      <c r="A4" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="0"/>
+      <c r="D4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <f aca="false">SUMIF(E2:E19,"*1*",D2:D19)</f>
+        <v>38</v>
+      </c>
+      <c r="K4" s="12" t="n">
+        <f aca="false">SUMIF(E20:E37,"*1*",D20:D37)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="0"/>
+      <c r="D5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="J5" s="12" t="n">
+        <f aca="false">SUMIF(E2:E19,"*2*",D2:D19)</f>
+        <v>39</v>
+      </c>
+      <c r="K5" s="12" t="n">
+        <f aca="false">SUMIF(E20:E37,"*2*",D20:D37)</f>
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="46.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="1" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="J6" s="12" t="n">
+        <f aca="false">SUMIF(E2:E19,"*3*",D2:D19)</f>
+        <v>28</v>
+      </c>
+      <c r="K6" s="12" t="n">
+        <f aca="false">SUMIF(E20:E37,"*3*",D20:D37)</f>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="46.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>3</v>
+        <v>119</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="0"/>
+      <c r="D7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J7" s="14" t="n">
+        <f aca="false">SUMIF(E2:E19,"*4*",D2:D19)</f>
+        <v>18</v>
+      </c>
+      <c r="K7" s="13" t="n">
+        <f aca="false">SUMIF(E20:E37,"*4*",D20:D37)</f>
+        <v>-38</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="0"/>
+      <c r="D8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="0"/>
+      <c r="D9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="0"/>
+      <c r="D12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="0"/>
+      <c r="D13" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="0"/>
+      <c r="D14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="46.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="0" t="n">
+      <c r="E15" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="0"/>
+      <c r="D16" s="1" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="0" t="n">
+      <c r="E16" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="0"/>
+      <c r="D18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="0"/>
+      <c r="D19" s="1" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>116</v>
+      <c r="E19" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="0" t="n">
+      <c r="A23" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="1" t="n">
         <v>-1</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="C24" s="0" t="n">
+      <c r="E24" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="46.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" s="1" t="n">
         <v>-5</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" s="0" t="n">
+      <c r="E25" s="0" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" s="1" t="n">
         <v>-1</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="C26" s="0" t="n">
+      <c r="E26" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="46.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D28" s="1" t="n">
         <v>-3</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27" s="0" t="n">
+      <c r="E28" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="46.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" s="1" t="n">
         <v>-1</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="C28" s="0" t="n">
+      <c r="E30" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="46.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="46.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D34" s="1" t="n">
         <v>-5</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="C29" s="0" t="n">
+      <c r="E34" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="46.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="46.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="46.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D37" s="1" t="n">
         <v>-1</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>-5</v>
+      <c r="E37" s="0" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>-3</v>
-      </c>
+      <c r="B38" s="0"/>
+      <c r="C38" s="0"/>
+      <c r="D38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <v>-3</v>
-      </c>
+      <c r="B39" s="0"/>
+      <c r="C39" s="0"/>
+      <c r="D39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>-1</v>
-      </c>
+      <c r="B40" s="0"/>
+      <c r="C40" s="0"/>
+      <c r="D40" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2831,25 +3497,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>141</v>
+        <v>203</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
-        <v>142</v>
+        <v>204</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>143</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="n">
+      <c r="C2" s="18" t="n">
         <f aca="false">COUNTIF(Artistes!E2:E49,0)</f>
         <v>8</v>
       </c>
@@ -2860,7 +3526,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>1</v>
@@ -2870,12 +3536,12 @@
         <v>8</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>146</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>147</v>
+        <v>209</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>2</v>
@@ -2884,14 +3550,14 @@
         <f aca="false">COUNTIF(Artistes!E2:E49,2)</f>
         <v>8</v>
       </c>
-      <c r="E4" s="9" t="n">
+      <c r="E4" s="18" t="n">
         <f aca="false">COUNTIF(Artistes!G2:G49,0)</f>
         <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>3</v>
@@ -2903,7 +3569,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>4</v>
@@ -2915,7 +3581,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>150</v>
+        <v>212</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>5</v>

--- a/LineUpXLS.xlsx
+++ b/LineUpXLS.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="214">
   <si>
     <t xml:space="preserve">Artist</t>
   </si>
@@ -310,7 +310,7 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
-    <t xml:space="preserve">events</t>
+    <t xml:space="preserve">event</t>
   </si>
   <si>
     <t xml:space="preserve">effect</t>
@@ -487,6 +487,9 @@
     <t xml:space="preserve">Le mec de la sécurité t’offres une barbe à papa quelle chance.</t>
   </si>
   <si>
+    <t xml:space="preserve">Insta</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gagner des places sur insta</t>
   </si>
   <si>
@@ -550,23 +553,7 @@
     <t xml:space="preserve">In the dark</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">C’est la p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">anne de courrant, quelqu’un a eu la bonne idée de pisser sur la multiprise</t>
-    </r>
+    <t xml:space="preserve">C’est la panne de courrant, quelqu’un a eu la bonne idée de pisser sur la multiprise</t>
   </si>
   <si>
     <t xml:space="preserve">Balance ton quoi</t>
@@ -620,7 +607,7 @@
     <t xml:space="preserve">event + 3 stars</t>
   </si>
   <si>
-    <t xml:space="preserve">Plus de taxi</t>
+    <t xml:space="preserve">Joe le taxi</t>
   </si>
   <si>
     <t xml:space="preserve">Le monde attiré par le lollapalooza rend compte de la line up de folie proposé, malheureusement, les taxis ne seront eux, pas au rendez-vous.</t>
@@ -688,7 +675,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -733,22 +720,10 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FFC9211E"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFC9211E"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -799,7 +774,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -840,35 +815,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2794,27 +2757,27 @@
   </sheetPr>
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="34.64"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="2.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="3.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="3.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="3.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="4.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="2.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="3.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="3.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="3.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="4.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B1" s="9" t="s">
@@ -2837,7 +2800,6 @@
       <c r="B2" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="0"/>
       <c r="D2" s="1" t="n">
         <v>1</v>
       </c>
@@ -2846,13 +2808,13 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="4" t="s">
         <v>102</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D3" s="1" t="n">
@@ -2861,17 +2823,17 @@
       <c r="E3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="0" t="s">
+      <c r="H3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J3" s="12" t="n">
+      <c r="J3" s="11" t="n">
         <f aca="false">SUMIF(E2:E19,"*0*",D2:D19)</f>
         <v>30</v>
       </c>
-      <c r="K3" s="12" t="n">
+      <c r="K3" s="11" t="n">
         <f aca="false">SUMIF(E20:E37,"*0*",D20:D37)</f>
         <v>-12</v>
       </c>
@@ -2883,24 +2845,23 @@
       <c r="B4" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="0"/>
       <c r="D4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="0" t="s">
+      <c r="H4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="1" t="n">
         <f aca="false">SUMIF(E2:E19,"*1*",D2:D19)</f>
         <v>38</v>
       </c>
-      <c r="K4" s="12" t="n">
+      <c r="K4" s="11" t="n">
         <f aca="false">SUMIF(E20:E37,"*1*",D20:D37)</f>
         <v>0</v>
       </c>
@@ -2912,36 +2873,35 @@
       <c r="B5" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="0"/>
       <c r="D5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="J5" s="12" t="n">
+      <c r="J5" s="11" t="n">
         <f aca="false">SUMIF(E2:E19,"*2*",D2:D19)</f>
         <v>39</v>
       </c>
-      <c r="K5" s="12" t="n">
+      <c r="K5" s="11" t="n">
         <f aca="false">SUMIF(E20:E37,"*2*",D20:D37)</f>
         <v>-28</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="46.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D6" s="1" t="n">
@@ -2950,46 +2910,45 @@
       <c r="E6" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="I6" s="0" t="s">
+      <c r="H6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="J6" s="12" t="n">
+      <c r="J6" s="11" t="n">
         <f aca="false">SUMIF(E2:E19,"*3*",D2:D19)</f>
         <v>28</v>
       </c>
-      <c r="K6" s="12" t="n">
+      <c r="K6" s="11" t="n">
         <f aca="false">SUMIF(E20:E37,"*3*",D20:D37)</f>
         <v>-12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="46.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="0"/>
       <c r="D7" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H7" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="I7" s="13" t="s">
+      <c r="H7" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="J7" s="14" t="n">
+      <c r="J7" s="13" t="n">
         <f aca="false">SUMIF(E2:E19,"*4*",D2:D19)</f>
         <v>18</v>
       </c>
-      <c r="K7" s="13" t="n">
+      <c r="K7" s="12" t="n">
         <f aca="false">SUMIF(E20:E37,"*4*",D20:D37)</f>
         <v>-38</v>
       </c>
@@ -3001,7 +2960,6 @@
       <c r="B8" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="0"/>
       <c r="D8" s="1" t="n">
         <v>3</v>
       </c>
@@ -3016,7 +2974,6 @@
       <c r="B9" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="0"/>
       <c r="D9" s="1" t="n">
         <v>5</v>
       </c>
@@ -3031,7 +2988,7 @@
       <c r="B10" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D10" s="1" t="n">
@@ -3048,7 +3005,7 @@
       <c r="B11" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D11" s="1" t="n">
@@ -3065,7 +3022,6 @@
       <c r="B12" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="0"/>
       <c r="D12" s="1" t="n">
         <v>1</v>
       </c>
@@ -3080,7 +3036,6 @@
       <c r="B13" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C13" s="0"/>
       <c r="D13" s="1" t="n">
         <v>3</v>
       </c>
@@ -3095,7 +3050,6 @@
       <c r="B14" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="0"/>
       <c r="D14" s="1" t="n">
         <v>3</v>
       </c>
@@ -3104,13 +3058,13 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="46.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D15" s="1" t="n">
@@ -3121,13 +3075,12 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>146</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="0"/>
       <c r="D16" s="1" t="n">
         <v>5</v>
       </c>
@@ -3136,13 +3089,13 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>149</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>151</v>
       </c>
       <c r="D17" s="1" t="n">
@@ -3153,13 +3106,12 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>152</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C18" s="0"/>
       <c r="D18" s="1" t="n">
         <v>1</v>
       </c>
@@ -3168,79 +3120,81 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="s">
+        <v>154</v>
+      </c>
       <c r="B19" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C19" s="0"/>
+        <v>155</v>
+      </c>
       <c r="D19" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>159</v>
+      <c r="E20" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="s">
-        <v>160</v>
+      <c r="A21" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>-5</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" s="1" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B22" s="15" t="s">
+      <c r="A22" s="11" t="s">
         <v>164</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" s="1" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>-3</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3249,227 +3203,221 @@
         <v>125</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="C24" s="16"/>
+        <v>169</v>
+      </c>
+      <c r="C24" s="14"/>
       <c r="D24" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="E24" s="0" t="s">
-        <v>169</v>
+      <c r="E24" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="46.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>170</v>
+      <c r="A25" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>-5</v>
       </c>
-      <c r="E25" s="0" t="s">
-        <v>173</v>
+      <c r="E25" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="B26" s="15" t="s">
+      <c r="A26" s="11" t="s">
         <v>175</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" s="1" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="s">
-        <v>176</v>
+      <c r="A27" s="11" t="s">
+        <v>177</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>-5</v>
       </c>
-      <c r="E27" s="0" t="s">
-        <v>159</v>
+      <c r="E27" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="46.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>178</v>
+      <c r="A28" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>-3</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" s="1" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="46.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="s">
-        <v>180</v>
+      <c r="A29" s="11" t="s">
+        <v>181</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D29" s="1" t="n">
         <v>-3</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="s">
-        <v>182</v>
+      <c r="A30" s="11" t="s">
+        <v>183</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="E30" s="0" t="s">
-        <v>184</v>
+      <c r="E30" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="s">
-        <v>185</v>
+      <c r="A31" s="11" t="s">
+        <v>186</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>-3</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12" t="s">
-        <v>187</v>
+      <c r="A32" s="11" t="s">
+        <v>188</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D32" s="1" t="n">
         <v>-3</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="46.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12" t="s">
-        <v>190</v>
+      <c r="A33" s="11" t="s">
+        <v>191</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D33" s="1" t="n">
         <v>-3</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="46.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="17" t="s">
-        <v>193</v>
+      <c r="A34" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D34" s="1" t="n">
         <v>-5</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="46.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12" t="s">
-        <v>195</v>
+      <c r="A35" s="11" t="s">
+        <v>196</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D35" s="1" t="n">
         <v>-3</v>
       </c>
-      <c r="E35" s="0" t="s">
-        <v>197</v>
+      <c r="E35" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="46.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12" t="s">
-        <v>198</v>
+      <c r="A36" s="11" t="s">
+        <v>199</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>-3</v>
       </c>
-      <c r="E36" s="0" t="s">
-        <v>200</v>
+      <c r="E36" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="46.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="17" t="s">
-        <v>201</v>
+      <c r="A37" s="10" t="s">
+        <v>202</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D37" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="E37" s="0" t="s">
-        <v>184</v>
+      <c r="E37" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0"/>
-      <c r="C38" s="0"/>
-      <c r="D38" s="0"/>
+      <c r="B38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0"/>
-      <c r="C39" s="0"/>
-      <c r="D39" s="0"/>
+      <c r="B39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0"/>
-      <c r="C40" s="0"/>
-      <c r="D40" s="0"/>
+      <c r="B40" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3497,25 +3445,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="18" t="n">
+      <c r="C2" s="15" t="n">
         <f aca="false">COUNTIF(Artistes!E2:E49,0)</f>
         <v>8</v>
       </c>
@@ -3526,7 +3474,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>1</v>
@@ -3536,12 +3484,12 @@
         <v>8</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>2</v>
@@ -3550,14 +3498,14 @@
         <f aca="false">COUNTIF(Artistes!E2:E49,2)</f>
         <v>8</v>
       </c>
-      <c r="E4" s="18" t="n">
+      <c r="E4" s="15" t="n">
         <f aca="false">COUNTIF(Artistes!G2:G49,0)</f>
         <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>3</v>
@@ -3569,7 +3517,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>4</v>
@@ -3581,7 +3529,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>5</v>

--- a/LineUpXLS.xlsx
+++ b/LineUpXLS.xlsx
@@ -2757,8 +2757,8 @@
   </sheetPr>
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2925,7 +2925,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="46.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>119</v>
       </c>
